--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA38B6D4-8980-3B4A-8DDF-4D42FF4B4D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3204032A-7D46-C44A-AFFC-C0FE931DAD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="13620" yWindow="500" windowWidth="10000" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -107,7 +107,22 @@
     <t>Sofiane Belle</t>
   </si>
   <si>
-    <t>Nouredine Messalti</t>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>Oumar</t>
+  </si>
+  <si>
+    <t>Naim Dhib</t>
+  </si>
+  <si>
+    <t>Wael Fareh</t>
+  </si>
+  <si>
+    <t>Yoan Zouma</t>
+  </si>
+  <si>
+    <t>Ilyes Bougahnmi</t>
   </si>
 </sst>
 </file>
@@ -143,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -153,11 +168,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -490,7 +576,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,102 +603,240 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C2">
+        <v>78.5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C3">
+        <v>89.2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C4">
+        <v>74.599999999999994</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="1">
+        <v>45855</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="1">
+        <v>45855</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B7" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C7">
+        <v>89.5</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="B8" s="1">
+        <v>45855</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B9" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C9">
+        <v>64.099999999999994</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="1">
+        <v>45855</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="B11" s="1">
+        <v>45855</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="B12" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C12">
+        <v>70.2</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B13" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C13">
+        <v>75.099999999999994</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="1">
+        <v>45855</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B15" s="1">
+        <v>45855</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C16">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="B17" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C17">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B18" s="1">
+        <v>45855</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B19" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C19">
+        <v>71.099999999999994</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B20" s="1">
+        <v>45855</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="B21" s="1">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C24">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C25">
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C26">
+        <v>72.599999999999994</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D31"/>
@@ -621,6 +845,29 @@
       <c r="D32"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A21:A26">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3204032A-7D46-C44A-AFFC-C0FE931DAD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E02EC85-04EF-9647-A845-F371679795E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="500" windowWidth="10000" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="12100" yWindow="500" windowWidth="10160" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -107,12 +107,6 @@
     <t>Sofiane Belle</t>
   </si>
   <si>
-    <t>Amir</t>
-  </si>
-  <si>
-    <t>Oumar</t>
-  </si>
-  <si>
     <t>Naim Dhib</t>
   </si>
   <si>
@@ -123,13 +117,32 @@
   </si>
   <si>
     <t>Ilyes Bougahnmi</t>
+  </si>
+  <si>
+    <t>Amir Kherrab</t>
+  </si>
+  <si>
+    <t>Omar Benyounes</t>
+  </si>
+  <si>
+    <t>Yoann Martelat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,10 +168,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -171,11 +185,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -573,15 +658,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -609,6 +694,9 @@
       <c r="C2">
         <v>78.5</v>
       </c>
+      <c r="D2" s="6">
+        <v>8.1000000000000003E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -620,6 +708,9 @@
       <c r="C3">
         <v>89.2</v>
       </c>
+      <c r="D3" s="6">
+        <v>9.6000000000000002E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -631,6 +722,9 @@
       <c r="C4">
         <v>74.599999999999994</v>
       </c>
+      <c r="D4" s="6">
+        <v>5.5E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -639,6 +733,12 @@
       <c r="B5" s="1">
         <v>45855</v>
       </c>
+      <c r="C5">
+        <v>79</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4.1000000000000002E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -647,6 +747,12 @@
       <c r="B6" s="1">
         <v>45855</v>
       </c>
+      <c r="C6">
+        <v>86.5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7.1999999999999995E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -658,6 +764,9 @@
       <c r="C7">
         <v>89.5</v>
       </c>
+      <c r="D7" s="6">
+        <v>0.129</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -666,6 +775,12 @@
       <c r="B8" s="1">
         <v>45855</v>
       </c>
+      <c r="C8">
+        <v>72.8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>8.3000000000000004E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -677,6 +792,9 @@
       <c r="C9">
         <v>64.099999999999994</v>
       </c>
+      <c r="D9" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -685,6 +803,12 @@
       <c r="B10" s="1">
         <v>45855</v>
       </c>
+      <c r="C10">
+        <v>72.3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6.9000000000000006E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -693,6 +817,12 @@
       <c r="B11" s="1">
         <v>45855</v>
       </c>
+      <c r="C11">
+        <v>80.2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>9.6000000000000002E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -704,6 +834,9 @@
       <c r="C12">
         <v>70.2</v>
       </c>
+      <c r="D12" s="6">
+        <v>6.9000000000000006E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -715,6 +848,9 @@
       <c r="C13">
         <v>75.099999999999994</v>
       </c>
+      <c r="D13" s="6">
+        <v>5.5E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -723,6 +859,12 @@
       <c r="B14" s="1">
         <v>45855</v>
       </c>
+      <c r="C14">
+        <v>64.2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6.9000000000000006E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -731,6 +873,12 @@
       <c r="B15" s="1">
         <v>45855</v>
       </c>
+      <c r="C15">
+        <v>66</v>
+      </c>
+      <c r="D15" s="6">
+        <v>6.9000000000000006E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -742,6 +890,9 @@
       <c r="C16">
         <v>87.2</v>
       </c>
+      <c r="D16" s="6">
+        <v>7.1999999999999995E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -753,6 +904,9 @@
       <c r="C17">
         <v>60.9</v>
       </c>
+      <c r="D17" s="6">
+        <v>5.5E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -761,6 +915,12 @@
       <c r="B18" s="1">
         <v>45855</v>
       </c>
+      <c r="C18">
+        <v>75.3</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8.1000000000000003E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -772,6 +932,9 @@
       <c r="C19">
         <v>71.099999999999994</v>
       </c>
+      <c r="D19" s="6">
+        <v>5.5E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -780,34 +943,53 @@
       <c r="B20" s="1">
         <v>45855</v>
       </c>
+      <c r="C20">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="D20" s="6">
+        <v>8.1000000000000003E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1">
         <v>45855</v>
+      </c>
+      <c r="C21">
+        <v>74.5</v>
+      </c>
+      <c r="D21" s="6">
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <v>45855</v>
       </c>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>45855</v>
+      </c>
+      <c r="C23">
+        <v>76.3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <v>45855</v>
@@ -815,10 +997,13 @@
       <c r="C24">
         <v>91.2</v>
       </c>
+      <c r="D24" s="6">
+        <v>0.10299999999999999</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
         <v>45855</v>
@@ -826,10 +1011,13 @@
       <c r="C25">
         <v>79.400000000000006</v>
       </c>
+      <c r="D25" s="6">
+        <v>9.0999999999999998E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
         <v>45855</v>
@@ -837,15 +1025,320 @@
       <c r="C26">
         <v>72.599999999999994</v>
       </c>
+      <c r="D26" s="6">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C27">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C28">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C29">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C30">
+        <v>78.599999999999994</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C31">
+        <v>86</v>
+      </c>
       <c r="D31"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45867</v>
+      </c>
       <c r="D32"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C34">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C35">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C36">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C37">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C38">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C39">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C40">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C41">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C42">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C43">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C44">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C45">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C46">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C47">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C48">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C49">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C50">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C51">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C52">
+        <v>75.400000000000006</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:A52">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E02EC85-04EF-9647-A845-F371679795E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB7625A-D24F-6B4F-BD96-C5C30AE9243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="500" windowWidth="10160" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -186,6 +186,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1039,6 +1042,9 @@
       <c r="C27">
         <v>77.900000000000006</v>
       </c>
+      <c r="D27" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
@@ -1050,6 +1056,9 @@
       <c r="C28">
         <v>88.8</v>
       </c>
+      <c r="D28" s="7">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
@@ -1061,6 +1070,9 @@
       <c r="C29">
         <v>75.7</v>
       </c>
+      <c r="D29" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
@@ -1072,6 +1084,9 @@
       <c r="C30">
         <v>78.599999999999994</v>
       </c>
+      <c r="D30" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
@@ -1083,7 +1098,9 @@
       <c r="C31">
         <v>86</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
@@ -1092,9 +1109,9 @@
       <c r="B32" s="1">
         <v>45867</v>
       </c>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
@@ -1102,10 +1119,13 @@
         <v>45867</v>
       </c>
       <c r="C33">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="D33" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -1115,8 +1135,11 @@
       <c r="C34">
         <v>63.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
@@ -1126,8 +1149,11 @@
       <c r="C35">
         <v>73.400000000000006</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>13</v>
       </c>
@@ -1137,8 +1163,11 @@
       <c r="C36">
         <v>80.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
@@ -1148,8 +1177,11 @@
       <c r="C37">
         <v>69.099999999999994</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="7">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>15</v>
       </c>
@@ -1159,8 +1191,11 @@
       <c r="C38">
         <v>76.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="7">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
@@ -1170,8 +1205,11 @@
       <c r="C39">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="7">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>17</v>
       </c>
@@ -1181,8 +1219,11 @@
       <c r="C40">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>18</v>
       </c>
@@ -1192,8 +1233,11 @@
       <c r="C41">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1247,11 @@
       <c r="C42">
         <v>61.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="7">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>20</v>
       </c>
@@ -1214,8 +1261,11 @@
       <c r="C43">
         <v>74.400000000000006</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>21</v>
       </c>
@@ -1225,8 +1275,11 @@
       <c r="C44">
         <v>72.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>22</v>
       </c>
@@ -1236,8 +1289,11 @@
       <c r="C45">
         <v>77.099999999999994</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>27</v>
       </c>
@@ -1247,8 +1303,11 @@
       <c r="C46">
         <v>74.400000000000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>23</v>
       </c>
@@ -1258,8 +1317,11 @@
       <c r="C47">
         <v>68</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>24</v>
       </c>
@@ -1269,8 +1331,11 @@
       <c r="C48">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>25</v>
       </c>
@@ -1280,8 +1345,11 @@
       <c r="C49">
         <v>90.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>26</v>
       </c>
@@ -1291,8 +1359,11 @@
       <c r="C50">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="7">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>28</v>
       </c>
@@ -1302,8 +1373,11 @@
       <c r="C51">
         <v>72.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>29</v>
       </c>
@@ -1313,6 +1387,12 @@
       <c r="C52">
         <v>75.400000000000006</v>
       </c>
+      <c r="D52" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D53" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB7625A-D24F-6B4F-BD96-C5C30AE9243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCFA880-215D-9147-949B-F7511BDF1B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>Yoan Zouma</t>
   </si>
   <si>
-    <t>Ilyes Bougahnmi</t>
-  </si>
-  <si>
     <t>Amir Kherrab</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Yoann Martelat</t>
+  </si>
+  <si>
+    <t>Ilyes Boughanmi</t>
   </si>
 </sst>
 </file>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,7 +955,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>45855</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
         <v>45855</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>45855</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" s="1">
         <v>45867</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1">
         <v>45867</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" s="1">
         <v>45867</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" s="1">
         <v>45867</v>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCFA880-215D-9147-949B-F7511BDF1B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027C3FD5-891F-4941-B9D9-33570796F105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="10860" yWindow="500" windowWidth="10000" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -196,7 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -661,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1392,33 +1459,280 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45888</v>
+      </c>
       <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C67">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C68">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C70">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C75">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C76">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C77">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45888</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A52">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A78">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027C3FD5-891F-4941-B9D9-33570796F105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E32116A-27DB-144C-A0E3-995B78D0B305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10860" yWindow="500" windowWidth="10000" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Ilyes Boughanmi</t>
+  </si>
+  <si>
+    <t>Kamal</t>
   </si>
 </sst>
 </file>
@@ -728,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1465,6 +1468,9 @@
       <c r="B53" s="1">
         <v>45888</v>
       </c>
+      <c r="C53">
+        <v>79</v>
+      </c>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1482,6 +1488,9 @@
       <c r="B55" s="1">
         <v>45888</v>
       </c>
+      <c r="C55">
+        <v>76.8</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
@@ -1490,6 +1499,9 @@
       <c r="B56" s="1">
         <v>45888</v>
       </c>
+      <c r="C56">
+        <v>78.3</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
@@ -1498,6 +1510,9 @@
       <c r="B57" s="1">
         <v>45888</v>
       </c>
+      <c r="C57">
+        <v>85.1</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
@@ -1506,6 +1521,9 @@
       <c r="B58" s="1">
         <v>45888</v>
       </c>
+      <c r="C58">
+        <v>89.4</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
@@ -1522,6 +1540,9 @@
       <c r="B60" s="1">
         <v>45888</v>
       </c>
+      <c r="C60">
+        <v>64.5</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
@@ -1530,6 +1551,9 @@
       <c r="B61" s="1">
         <v>45888</v>
       </c>
+      <c r="C61">
+        <v>73.900000000000006</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
@@ -1538,6 +1562,9 @@
       <c r="B62" s="1">
         <v>45888</v>
       </c>
+      <c r="C62">
+        <v>80.7</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -1546,6 +1573,9 @@
       <c r="B63" s="1">
         <v>45888</v>
       </c>
+      <c r="C63">
+        <v>70.099999999999994</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
@@ -1570,6 +1600,9 @@
       <c r="B66" s="1">
         <v>45888</v>
       </c>
+      <c r="C66">
+        <v>65.7</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
@@ -1627,6 +1660,9 @@
       <c r="B72" s="1">
         <v>45888</v>
       </c>
+      <c r="C72">
+        <v>75.099999999999994</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -1643,6 +1679,9 @@
       <c r="B74" s="1">
         <v>45888</v>
       </c>
+      <c r="C74">
+        <v>75.8</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
@@ -1683,6 +1722,14 @@
       </c>
       <c r="B78" s="1">
         <v>45888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1732,7 +1779,7 @@
       <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A78">
+  <conditionalFormatting sqref="A72:A79">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E32116A-27DB-144C-A0E3-995B78D0B305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F907F1-CD42-2444-8C3B-16E78963016C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10860" yWindow="500" windowWidth="10000" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
@@ -128,7 +128,7 @@
     <t>Ilyes Boughanmi</t>
   </si>
   <si>
-    <t>Kamal</t>
+    <t>Kamal Bafounta</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1728,6 +1728,9 @@
       <c r="A79" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="B79" s="1">
+        <v>45889</v>
+      </c>
       <c r="C79">
         <v>90</v>
       </c>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F907F1-CD42-2444-8C3B-16E78963016C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA58EFFD-169C-3244-BDE4-0793D6297C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="500" windowWidth="10000" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -193,6 +193,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -733,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1469,9 +1472,11 @@
         <v>45888</v>
       </c>
       <c r="C53">
-        <v>79</v>
-      </c>
-      <c r="D53" s="7"/>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="D53" s="7">
+        <v>7.8E-2</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
@@ -1480,6 +1485,12 @@
       <c r="B54" s="1">
         <v>45888</v>
       </c>
+      <c r="C54">
+        <v>87.5</v>
+      </c>
+      <c r="D54" s="8">
+        <v>8.5999999999999993E-2</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
@@ -1491,6 +1502,9 @@
       <c r="C55">
         <v>76.8</v>
       </c>
+      <c r="D55" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
@@ -1502,6 +1516,9 @@
       <c r="C56">
         <v>78.3</v>
       </c>
+      <c r="D56" s="8">
+        <v>4.4999999999999998E-2</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
@@ -1513,6 +1530,9 @@
       <c r="C57">
         <v>85.1</v>
       </c>
+      <c r="D57" s="8">
+        <v>6.2E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
@@ -1524,6 +1544,9 @@
       <c r="C58">
         <v>89.4</v>
       </c>
+      <c r="D58" s="8">
+        <v>0.112</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
@@ -1532,6 +1555,7 @@
       <c r="B59" s="1">
         <v>45888</v>
       </c>
+      <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
@@ -1543,6 +1567,9 @@
       <c r="C60">
         <v>64.5</v>
       </c>
+      <c r="D60" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
@@ -1554,6 +1581,9 @@
       <c r="C61">
         <v>73.900000000000006</v>
       </c>
+      <c r="D61" s="8">
+        <v>5.5E-2</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
@@ -1565,6 +1595,9 @@
       <c r="C62">
         <v>80.7</v>
       </c>
+      <c r="D62" s="8">
+        <v>9.6000000000000002E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -1576,6 +1609,9 @@
       <c r="C63">
         <v>70.099999999999994</v>
       </c>
+      <c r="D63" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
@@ -1584,16 +1620,28 @@
       <c r="B64" s="1">
         <v>45888</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>77.7</v>
+      </c>
+      <c r="D64" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B65" s="1">
         <v>45888</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="D65" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>17</v>
       </c>
@@ -1603,8 +1651,11 @@
       <c r="C66">
         <v>65.7</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>18</v>
       </c>
@@ -1614,8 +1665,11 @@
       <c r="C67">
         <v>86</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" s="8">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>19</v>
       </c>
@@ -1625,16 +1679,25 @@
       <c r="C68">
         <v>61.7</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" s="8">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B69" s="1">
         <v>45888</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>76.5</v>
+      </c>
+      <c r="D69" s="8">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>21</v>
       </c>
@@ -1644,16 +1707,25 @@
       <c r="C70">
         <v>73.599999999999994</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" s="8">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B71" s="1">
         <v>45888</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>76</v>
+      </c>
+      <c r="D71" s="8">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>26</v>
       </c>
@@ -1663,16 +1735,25 @@
       <c r="C72">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" s="8">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B73" s="1">
         <v>45888</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>67</v>
+      </c>
+      <c r="D73" s="8">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1763,11 @@
       <c r="C74">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>25</v>
       </c>
@@ -1693,8 +1777,11 @@
       <c r="C75">
         <v>90</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" s="8">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>29</v>
       </c>
@@ -1704,8 +1791,11 @@
       <c r="C76">
         <v>78.8</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" s="8">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>27</v>
       </c>
@@ -1715,16 +1805,25 @@
       <c r="C77">
         <v>70.7</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B78" s="1">
         <v>45888</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>76.2</v>
+      </c>
+      <c r="D78" s="8">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>30</v>
       </c>
@@ -1733,6 +1832,9 @@
       </c>
       <c r="C79">
         <v>90</v>
+      </c>
+      <c r="D79" s="8">
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA58EFFD-169C-3244-BDE4-0793D6297C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EEF710-999D-9E49-BE17-A44C10580B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="9320" yWindow="500" windowWidth="10000" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -202,7 +202,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -734,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1837,31 +1904,304 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C83">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C84">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C85">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C86">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C87">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C89">
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C92">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C95">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C97">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C99">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C102">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C103">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C104">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="4"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A52">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A79">
     <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"R"</formula>
     </cfRule>
@@ -1884,7 +2224,7 @@
       <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A79">
+  <conditionalFormatting sqref="A99:A106">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EEF710-999D-9E49-BE17-A44C10580B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099AE980-CFE7-184B-87DD-17811CFAACC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="500" windowWidth="10000" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="16480" yWindow="540" windowWidth="11780" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -204,6 +204,63 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -214,6 +271,23 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -264,6 +338,66 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -271,203 +405,69 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1990,6 +1990,9 @@
       <c r="B88" s="1">
         <v>45902</v>
       </c>
+      <c r="C88">
+        <v>72.2</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
@@ -2036,6 +2039,9 @@
       <c r="B93" s="1">
         <v>45902</v>
       </c>
+      <c r="C93">
+        <v>65</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
@@ -2063,6 +2069,9 @@
       <c r="B96" s="1">
         <v>45902</v>
       </c>
+      <c r="C96">
+        <v>75</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
@@ -2150,32 +2159,35 @@
       <c r="B105" s="1">
         <v>45902</v>
       </c>
+      <c r="C105">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A52">
@@ -2202,49 +2214,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A79">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
-      <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A106">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099AE980-CFE7-184B-87DD-17811CFAACC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A267BE0-9809-EC4A-82C9-8ED0E733E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16480" yWindow="540" windowWidth="11780" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="16480" yWindow="500" windowWidth="11780" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1911,6 +1911,9 @@
       <c r="B80" s="1">
         <v>45902</v>
       </c>
+      <c r="C80">
+        <v>79.8</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
@@ -1919,6 +1922,9 @@
       <c r="B81" s="1">
         <v>45902</v>
       </c>
+      <c r="C81">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
@@ -1927,6 +1933,9 @@
       <c r="B82" s="1">
         <v>45902</v>
       </c>
+      <c r="C82">
+        <v>77.2</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
@@ -2012,6 +2021,9 @@
       <c r="B90" s="1">
         <v>45902</v>
       </c>
+      <c r="C90">
+        <v>69.7</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
@@ -2050,6 +2062,9 @@
       <c r="B94" s="1">
         <v>45902</v>
       </c>
+      <c r="C94">
+        <v>86.9</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
@@ -2117,6 +2132,9 @@
       </c>
       <c r="B101" s="1">
         <v>45902</v>
+      </c>
+      <c r="C101">
+        <v>74.599999999999994</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A267BE0-9809-EC4A-82C9-8ED0E733E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A18D7D-9031-8F4A-A735-6A8DDBB694D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16480" yWindow="500" windowWidth="11780" windowHeight="16380" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="16480" yWindow="500" windowWidth="11780" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A18D7D-9031-8F4A-A735-6A8DDBB694D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F336A4-4A10-9E4E-ACEB-606E56DA4834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16480" yWindow="500" windowWidth="11780" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="9400" yWindow="500" windowWidth="11780" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="32">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Kamal Bafounta</t>
+  </si>
+  <si>
+    <t>Malik Boussaid</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -801,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2182,99 +2252,370 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="4"/>
+      <c r="A106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C109">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C111">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C120">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C121">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C126">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C128">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C131">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C132">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C133">
+        <v>77.2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A52">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A79">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:A105">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"B"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99:A106">
+  <conditionalFormatting sqref="A125:A133">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F336A4-4A10-9E4E-ACEB-606E56DA4834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A589DF81-BE79-5D47-9E52-7F091987179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="500" windowWidth="11780" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="16560" yWindow="500" windowWidth="11780" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -341,6 +341,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -353,124 +383,94 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -874,7 +874,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2258,6 +2258,9 @@
       <c r="B106" s="1">
         <v>45923</v>
       </c>
+      <c r="C106">
+        <v>77.599999999999994</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
@@ -2312,6 +2315,9 @@
       <c r="B112" s="1">
         <v>45923</v>
       </c>
+      <c r="C112">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
@@ -2320,6 +2326,9 @@
       <c r="B113" s="1">
         <v>45923</v>
       </c>
+      <c r="C113">
+        <v>63.7</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
@@ -2360,6 +2369,9 @@
       <c r="B118" s="1">
         <v>45923</v>
       </c>
+      <c r="C118">
+        <v>66.599999999999994</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
@@ -2398,6 +2410,9 @@
       <c r="B122" s="1">
         <v>45923</v>
       </c>
+      <c r="C122">
+        <v>75.099999999999994</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
@@ -2414,6 +2429,9 @@
       <c r="B124" s="1">
         <v>45923</v>
       </c>
+      <c r="C124">
+        <v>77.2</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
@@ -2441,6 +2459,9 @@
       <c r="B127" s="1">
         <v>45923</v>
       </c>
+      <c r="C127">
+        <v>75.099999999999994</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
@@ -2467,6 +2488,9 @@
       </c>
       <c r="B130" s="1">
         <v>45923</v>
+      </c>
+      <c r="C130">
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -2527,49 +2551,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A52">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A79">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A105">
@@ -2596,26 +2620,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:A133">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A589DF81-BE79-5D47-9E52-7F091987179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB478E7-8897-094A-9AB7-70EE9FCD0F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="500" windowWidth="11780" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="16260" yWindow="500" windowWidth="11780" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -874,7 +874,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2277,6 +2277,9 @@
       <c r="B108" s="1">
         <v>45923</v>
       </c>
+      <c r="C108">
+        <v>77.2</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
@@ -2380,6 +2383,9 @@
       <c r="B119" s="1">
         <v>45923</v>
       </c>
+      <c r="C119">
+        <v>64.2</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
@@ -2420,6 +2426,9 @@
       </c>
       <c r="B123" s="1">
         <v>45923</v>
+      </c>
+      <c r="C123">
+        <v>72.900000000000006</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB478E7-8897-094A-9AB7-70EE9FCD0F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8EBAC5-D233-1445-8B9D-4004E1895F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16260" yWindow="500" windowWidth="11780" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="16240" yWindow="500" windowWidth="11780" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2269,6 +2269,9 @@
       <c r="B107" s="1">
         <v>45923</v>
       </c>
+      <c r="C107">
+        <v>87.8</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
@@ -2299,6 +2302,9 @@
       <c r="B110" s="1">
         <v>45923</v>
       </c>
+      <c r="C110">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
@@ -2340,6 +2346,9 @@
       <c r="B114" s="1">
         <v>45923</v>
       </c>
+      <c r="C114">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
@@ -2449,6 +2458,9 @@
       <c r="B125" s="1">
         <v>45923</v>
       </c>
+      <c r="C125">
+        <v>74.900000000000006</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
@@ -2489,6 +2501,9 @@
       </c>
       <c r="B129" s="1">
         <v>45923</v>
+      </c>
+      <c r="C129">
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8EBAC5-D233-1445-8B9D-4004E1895F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8672521E-960B-EA47-9111-EBAACB91D319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16240" yWindow="500" windowWidth="11780" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="15360" yWindow="640" windowWidth="11780" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -874,7 +874,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2357,6 +2357,9 @@
       <c r="B115" s="1">
         <v>45923</v>
       </c>
+      <c r="C115">
+        <v>79.400000000000006</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8672521E-960B-EA47-9111-EBAACB91D319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24076670-8D7E-CA4D-8C77-CFEA916A3972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="640" windowWidth="11780" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +155,18 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -178,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -199,6 +211,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -873,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1984,8 +2002,11 @@
       <c r="C80">
         <v>79.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" s="9">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>5</v>
       </c>
@@ -1995,8 +2016,11 @@
       <c r="C81">
         <v>87.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" s="9">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>6</v>
       </c>
@@ -2006,8 +2030,11 @@
       <c r="C82">
         <v>77.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" s="9">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>7</v>
       </c>
@@ -2017,8 +2044,11 @@
       <c r="C83">
         <v>78.400000000000006</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" s="9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>8</v>
       </c>
@@ -2028,8 +2058,11 @@
       <c r="C84">
         <v>86.1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>9</v>
       </c>
@@ -2039,8 +2072,11 @@
       <c r="C85">
         <v>87.9</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" s="9">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>10</v>
       </c>
@@ -2050,8 +2086,11 @@
       <c r="C86">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" s="9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>11</v>
       </c>
@@ -2061,8 +2100,11 @@
       <c r="C87">
         <v>64</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" s="9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>12</v>
       </c>
@@ -2072,8 +2114,11 @@
       <c r="C88">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>13</v>
       </c>
@@ -2083,8 +2128,11 @@
       <c r="C89">
         <v>79.400000000000006</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" s="9">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
@@ -2094,16 +2142,20 @@
       <c r="C90">
         <v>69.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" s="9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B91" s="1">
         <v>45902</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>16</v>
       </c>
@@ -2113,8 +2165,11 @@
       <c r="C92">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>17</v>
       </c>
@@ -2124,8 +2179,11 @@
       <c r="C93">
         <v>65</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>18</v>
       </c>
@@ -2135,8 +2193,11 @@
       <c r="C94">
         <v>86.9</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>19</v>
       </c>
@@ -2146,8 +2207,11 @@
       <c r="C95">
         <v>62.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" s="9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>20</v>
       </c>
@@ -2157,8 +2221,11 @@
       <c r="C96">
         <v>75</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" s="9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>21</v>
       </c>
@@ -2168,16 +2235,20 @@
       <c r="C97">
         <v>72.8</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" s="9">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B98" s="1">
         <v>45902</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>26</v>
       </c>
@@ -2187,16 +2258,20 @@
       <c r="C99">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B100" s="1">
         <v>45902</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>24</v>
       </c>
@@ -2206,8 +2281,11 @@
       <c r="C101">
         <v>74.599999999999994</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" s="9">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>25</v>
       </c>
@@ -2217,8 +2295,11 @@
       <c r="C102">
         <v>89.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" s="9">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>29</v>
       </c>
@@ -2228,8 +2309,11 @@
       <c r="C103">
         <v>79.3</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" s="9">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>27</v>
       </c>
@@ -2239,8 +2323,11 @@
       <c r="C104">
         <v>70.7</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" s="9">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>28</v>
       </c>
@@ -2250,8 +2337,11 @@
       <c r="C105">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" s="9">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>4</v>
       </c>
@@ -2261,8 +2351,11 @@
       <c r="C106">
         <v>77.599999999999994</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" s="10">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>5</v>
       </c>
@@ -2272,8 +2365,11 @@
       <c r="C107">
         <v>87.8</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" s="10">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>6</v>
       </c>
@@ -2283,8 +2379,11 @@
       <c r="C108">
         <v>77.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" s="10">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -2294,8 +2393,11 @@
       <c r="C109">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" s="10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>8</v>
       </c>
@@ -2305,8 +2407,11 @@
       <c r="C110">
         <v>86.3</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>9</v>
       </c>
@@ -2316,8 +2421,11 @@
       <c r="C111">
         <v>88</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" s="10">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>10</v>
       </c>
@@ -2327,8 +2435,11 @@
       <c r="C112">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>11</v>
       </c>
@@ -2338,8 +2449,11 @@
       <c r="C113">
         <v>63.7</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" s="10">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>12</v>
       </c>
@@ -2349,8 +2463,11 @@
       <c r="C114">
         <v>73.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>13</v>
       </c>
@@ -2360,24 +2477,29 @@
       <c r="C115">
         <v>79.400000000000006</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" s="10">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B116" s="1">
         <v>45923</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" s="10"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B117" s="1">
         <v>45923</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" s="10"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>16</v>
       </c>
@@ -2387,8 +2509,11 @@
       <c r="C118">
         <v>66.599999999999994</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>17</v>
       </c>
@@ -2398,8 +2523,11 @@
       <c r="C119">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" s="10">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>18</v>
       </c>
@@ -2409,8 +2537,11 @@
       <c r="C120">
         <v>87.7</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" s="10">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>19</v>
       </c>
@@ -2420,8 +2551,11 @@
       <c r="C121">
         <v>60.9</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" s="10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>20</v>
       </c>
@@ -2431,8 +2565,11 @@
       <c r="C122">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" s="10">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>21</v>
       </c>
@@ -2442,8 +2579,11 @@
       <c r="C123">
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" s="10">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>22</v>
       </c>
@@ -2453,8 +2593,11 @@
       <c r="C124">
         <v>77.2</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>26</v>
       </c>
@@ -2464,8 +2607,11 @@
       <c r="C125">
         <v>74.900000000000006</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" s="10">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>23</v>
       </c>
@@ -2475,8 +2621,11 @@
       <c r="C126">
         <v>67.2</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" s="10">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>24</v>
       </c>
@@ -2486,8 +2635,11 @@
       <c r="C127">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" s="10">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>25</v>
       </c>
@@ -2497,8 +2649,11 @@
       <c r="C128">
         <v>88</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" s="10">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>29</v>
       </c>
@@ -2508,8 +2663,11 @@
       <c r="C129">
         <v>80.400000000000006</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" s="10">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>27</v>
       </c>
@@ -2519,8 +2677,11 @@
       <c r="C130">
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" s="10">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>28</v>
       </c>
@@ -2530,8 +2691,11 @@
       <c r="C131">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" s="10">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>30</v>
       </c>
@@ -2541,8 +2705,11 @@
       <c r="C132">
         <v>88.6</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" s="10">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>31</v>
       </c>
@@ -2551,6 +2718,9 @@
       </c>
       <c r="C133">
         <v>77.2</v>
+      </c>
+      <c r="D133" s="10">
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24076670-8D7E-CA4D-8C77-CFEA916A3972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CE1093-836C-AC4B-9BDB-A444A8C4D7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="18800" yWindow="660" windowWidth="10000" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -212,10 +212,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -223,7 +223,67 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -237,11 +297,108 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -257,6 +414,53 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -267,6 +471,53 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -277,6 +528,53 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
@@ -287,7 +585,37 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -295,267 +623,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -889,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2483,7 +2550,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B116" s="1">
         <v>45923</v>
@@ -2492,287 +2559,532 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B117" s="1">
         <v>45923</v>
       </c>
-      <c r="D117" s="10"/>
+      <c r="C117">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="D117" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B118" s="1">
         <v>45923</v>
       </c>
       <c r="C118">
-        <v>66.599999999999994</v>
+        <v>64.2</v>
       </c>
       <c r="D118" s="10">
-        <v>6.5000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B119" s="1">
         <v>45923</v>
       </c>
       <c r="C119">
-        <v>64.2</v>
+        <v>87.7</v>
       </c>
       <c r="D119" s="10">
-        <v>5.8000000000000003E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B120" s="1">
         <v>45923</v>
       </c>
       <c r="C120">
-        <v>87.7</v>
+        <v>60.9</v>
       </c>
       <c r="D120" s="10">
-        <v>6.9000000000000006E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B121" s="1">
         <v>45923</v>
       </c>
       <c r="C121">
-        <v>60.9</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="D121" s="10">
-        <v>4.4999999999999998E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B122" s="1">
         <v>45923</v>
       </c>
       <c r="C122">
-        <v>75.099999999999994</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="D122" s="10">
-        <v>6.9000000000000006E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B123" s="1">
         <v>45923</v>
       </c>
       <c r="C123">
-        <v>72.900000000000006</v>
+        <v>77.2</v>
       </c>
       <c r="D123" s="10">
-        <v>5.8000000000000003E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B124" s="1">
         <v>45923</v>
       </c>
       <c r="C124">
-        <v>77.2</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="D124" s="10">
-        <v>7.4999999999999997E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>26</v>
+      <c r="A125" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B125" s="1">
         <v>45923</v>
       </c>
       <c r="C125">
-        <v>74.900000000000006</v>
+        <v>67.2</v>
       </c>
       <c r="D125" s="10">
-        <v>5.8000000000000003E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="5" t="s">
-        <v>23</v>
+      <c r="A126" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B126" s="1">
         <v>45923</v>
       </c>
       <c r="C126">
-        <v>67.2</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="D126" s="10">
-        <v>9.0999999999999998E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B127" s="1">
         <v>45923</v>
       </c>
       <c r="C127">
-        <v>75.099999999999994</v>
+        <v>88</v>
       </c>
       <c r="D127" s="10">
-        <v>6.9000000000000006E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B128" s="1">
         <v>45923</v>
       </c>
       <c r="C128">
-        <v>88</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="D128" s="10">
-        <v>9.6000000000000002E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B129" s="1">
         <v>45923</v>
       </c>
       <c r="C129">
-        <v>80.400000000000006</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="D129" s="10">
-        <v>8.1000000000000003E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B130" s="1">
         <v>45923</v>
       </c>
       <c r="C130">
-        <v>69.900000000000006</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D130" s="10">
-        <v>7.8E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B131" s="1">
         <v>45923</v>
       </c>
       <c r="C131">
-        <v>75.599999999999994</v>
+        <v>88.6</v>
       </c>
       <c r="D131" s="10">
-        <v>8.5999999999999993E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B132" s="1">
         <v>45923</v>
       </c>
       <c r="C132">
-        <v>88.6</v>
+        <v>77.2</v>
       </c>
       <c r="D132" s="10">
-        <v>5.8000000000000003E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C147">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C155">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C156">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C158">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B133" s="1">
-        <v>45923</v>
-      </c>
-      <c r="C133">
-        <v>77.2</v>
-      </c>
-      <c r="D133" s="10">
-        <v>3.6999999999999998E-2</v>
+      <c r="B159" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C159">
+        <v>79.2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A52">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>"OK"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A79">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+      <formula>"P"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:A105">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>"R"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A79">
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
-      <formula>"RENFO/TEK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"B"</formula>
@@ -2780,8 +3092,8 @@
     <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
-      <formula>"R"</formula>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"RENFO/TEK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"OK"</formula>
@@ -2793,50 +3105,50 @@
       <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99:A105">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>"OK"</formula>
+  <conditionalFormatting sqref="A124:A132">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"P"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151:A159">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A125:A133">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"R"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CE1093-836C-AC4B-9BDB-A444A8C4D7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEFC18E-0452-A144-8116-4BC6B2055114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="660" windowWidth="10000" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="18480" yWindow="500" windowWidth="10000" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -225,6 +225,63 @@
   </cellStyles>
   <dxfs count="42">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -235,6 +292,53 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -250,6 +354,43 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -285,6 +426,66 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -292,6 +493,63 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -302,6 +560,53 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -317,312 +622,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2788,6 +2788,9 @@
       <c r="B133" s="1">
         <v>45951</v>
       </c>
+      <c r="C133">
+        <v>78.099999999999994</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
@@ -2804,6 +2807,9 @@
       <c r="B135" s="1">
         <v>45951</v>
       </c>
+      <c r="C135">
+        <v>76.8</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
@@ -2860,6 +2866,9 @@
       <c r="B142" s="1">
         <v>45951</v>
       </c>
+      <c r="C142">
+        <v>78.8</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
@@ -2876,6 +2885,9 @@
       <c r="B144" s="1">
         <v>45951</v>
       </c>
+      <c r="C144">
+        <v>66.3</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
@@ -2884,6 +2896,9 @@
       <c r="B145" s="1">
         <v>45951</v>
       </c>
+      <c r="C145">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
@@ -2892,6 +2907,9 @@
       <c r="B146" s="1">
         <v>45951</v>
       </c>
+      <c r="C146">
+        <v>89.1</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
@@ -3014,49 +3032,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="37" priority="45" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A52">
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A79">
@@ -3083,72 +3101,72 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A105">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
-      <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A132">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A159">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEFC18E-0452-A144-8116-4BC6B2055114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE831AC4-0DAB-D04C-840A-D93753B46AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18480" yWindow="500" windowWidth="10000" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2818,6 +2818,9 @@
       <c r="B136" s="1">
         <v>45951</v>
       </c>
+      <c r="C136">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
@@ -2834,6 +2837,9 @@
       <c r="B138" s="1">
         <v>45951</v>
       </c>
+      <c r="C138">
+        <v>86.7</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
@@ -2850,6 +2856,9 @@
       <c r="B140" s="1">
         <v>45951</v>
       </c>
+      <c r="C140">
+        <v>63.9</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
@@ -2858,6 +2867,9 @@
       <c r="B141" s="1">
         <v>45951</v>
       </c>
+      <c r="C141">
+        <v>73</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
@@ -2929,6 +2941,9 @@
       <c r="B148" s="1">
         <v>45951</v>
       </c>
+      <c r="C148">
+        <v>75.400000000000006</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
@@ -2937,6 +2952,9 @@
       <c r="B149" s="1">
         <v>45951</v>
       </c>
+      <c r="C149">
+        <v>72.2</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
@@ -2945,6 +2963,9 @@
       <c r="B150" s="1">
         <v>45951</v>
       </c>
+      <c r="C150">
+        <v>77.400000000000006</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
@@ -2961,6 +2982,9 @@
       <c r="B152" s="1">
         <v>45951</v>
       </c>
+      <c r="C152">
+        <v>67.2</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
@@ -3006,6 +3030,9 @@
       </c>
       <c r="B157" s="1">
         <v>45951</v>
+      </c>
+      <c r="C157">
+        <v>75.8</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE831AC4-0DAB-D04C-840A-D93753B46AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D261C95A-C727-E94B-8901-01A00B3587B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18480" yWindow="500" windowWidth="10000" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
@@ -225,6 +225,66 @@
   </cellStyles>
   <dxfs count="42">
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -237,11 +297,108 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -257,6 +414,53 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -267,6 +471,53 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -277,6 +528,53 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
@@ -287,7 +585,37 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -295,334 +623,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3059,49 +3059,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
-      <formula>"OK"</formula>
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+      <formula>"P"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="45" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
-      <formula>"R"</formula>
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
+      <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A52">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
-      <formula>"OK"</formula>
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>"P"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>"R"</formula>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+      <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A79">
@@ -3128,72 +3128,72 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A105">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A132">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>"OK"</formula>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"P"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"R"</formula>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+      <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A159">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"OK"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"P"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"R"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D261C95A-C727-E94B-8901-01A00B3587B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F114623C-9C3B-794A-BA98-9A029349604E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18480" yWindow="500" windowWidth="10000" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
@@ -225,6 +225,63 @@
   </cellStyles>
   <dxfs count="42">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -235,6 +292,53 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -250,6 +354,43 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -285,6 +426,66 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -292,6 +493,63 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -302,6 +560,53 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -317,312 +622,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2993,6 +2993,9 @@
       <c r="B153" s="1">
         <v>45951</v>
       </c>
+      <c r="C153">
+        <v>75.400000000000006</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
@@ -3001,6 +3004,9 @@
       <c r="B154" s="1">
         <v>45951</v>
       </c>
+      <c r="C154">
+        <v>88.3</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
@@ -3059,49 +3065,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="37" priority="45" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A52">
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A79">
@@ -3128,72 +3134,72 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A105">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
-      <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A132">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A159">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F114623C-9C3B-794A-BA98-9A029349604E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBA9383-9194-5549-B2CA-2575A1B001AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18480" yWindow="500" windowWidth="10000" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2799,6 +2799,9 @@
       <c r="B134" s="1">
         <v>45951</v>
       </c>
+      <c r="C134">
+        <v>90.7</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBA9383-9194-5549-B2CA-2575A1B001AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0506944F-F712-724C-9FEF-47C9AE54C2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18480" yWindow="500" windowWidth="10000" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2791,6 +2791,9 @@
       <c r="C133">
         <v>78.099999999999994</v>
       </c>
+      <c r="D133" s="7">
+        <v>8.1000000000000003E-2</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
@@ -2802,6 +2805,9 @@
       <c r="C134">
         <v>90.7</v>
       </c>
+      <c r="D134" s="7">
+        <v>0.108</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
@@ -2813,6 +2819,9 @@
       <c r="C135">
         <v>76.8</v>
       </c>
+      <c r="D135" s="7">
+        <v>5.5E-2</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
@@ -2824,6 +2833,9 @@
       <c r="C136">
         <v>77.8</v>
       </c>
+      <c r="D136" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
@@ -2832,6 +2844,7 @@
       <c r="B137" s="1">
         <v>45951</v>
       </c>
+      <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
@@ -2843,6 +2856,9 @@
       <c r="C138">
         <v>86.7</v>
       </c>
+      <c r="D138" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
@@ -2851,6 +2867,7 @@
       <c r="B139" s="1">
         <v>45951</v>
       </c>
+      <c r="D139" s="7"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
@@ -2862,6 +2879,9 @@
       <c r="C140">
         <v>63.9</v>
       </c>
+      <c r="D140" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
@@ -2873,6 +2893,9 @@
       <c r="C141">
         <v>73</v>
       </c>
+      <c r="D141" s="7">
+        <v>6.2E-2</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
@@ -2884,6 +2907,9 @@
       <c r="C142">
         <v>78.8</v>
       </c>
+      <c r="D142" s="7">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
@@ -2892,6 +2918,7 @@
       <c r="B143" s="1">
         <v>45951</v>
       </c>
+      <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
@@ -2903,8 +2930,11 @@
       <c r="C144">
         <v>66.3</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>17</v>
       </c>
@@ -2914,8 +2944,11 @@
       <c r="C145">
         <v>65.3</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" s="7">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>18</v>
       </c>
@@ -2925,8 +2958,11 @@
       <c r="C146">
         <v>89.1</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>19</v>
       </c>
@@ -2936,8 +2972,11 @@
       <c r="C147">
         <v>62.1</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>20</v>
       </c>
@@ -2947,8 +2986,11 @@
       <c r="C148">
         <v>75.400000000000006</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>21</v>
       </c>
@@ -2958,8 +3000,11 @@
       <c r="C149">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>22</v>
       </c>
@@ -2969,16 +3014,20 @@
       <c r="C150">
         <v>77.400000000000006</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B151" s="1">
         <v>45951</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>23</v>
       </c>
@@ -2988,8 +3037,11 @@
       <c r="C152">
         <v>67.2</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>24</v>
       </c>
@@ -2999,8 +3051,11 @@
       <c r="C153">
         <v>75.400000000000006</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" s="7">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>25</v>
       </c>
@@ -3010,8 +3065,11 @@
       <c r="C154">
         <v>88.3</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>29</v>
       </c>
@@ -3021,8 +3079,11 @@
       <c r="C155">
         <v>80.8</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>27</v>
       </c>
@@ -3032,8 +3093,11 @@
       <c r="C156">
         <v>70</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>28</v>
       </c>
@@ -3043,8 +3107,11 @@
       <c r="C157">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157" s="7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>30</v>
       </c>
@@ -3054,8 +3121,11 @@
       <c r="C158">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158" s="7">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>31</v>
       </c>
@@ -3064,6 +3134,9 @@
       </c>
       <c r="C159">
         <v>79.2</v>
+      </c>
+      <c r="D159" s="7">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0506944F-F712-724C-9FEF-47C9AE54C2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140B4F91-2B29-7B43-9811-B0E203A516F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18480" yWindow="500" windowWidth="10000" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="18140" yWindow="500" windowWidth="10620" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="33">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -133,6 +133,9 @@
   <si>
     <t>Malik Boussaid</t>
   </si>
+  <si>
+    <t xml:space="preserve">`££mnb </t>
+  </si>
 </sst>
 </file>
 
@@ -223,7 +226,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -956,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3139,100 +3209,366 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C163">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C165">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B171" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C173">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B178" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B180" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C181">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B182" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B183" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C183">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B184" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C184">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B185" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C185">
+        <v>86.2</v>
+      </c>
+      <c r="E185" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C186">
+        <v>78.7</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="51" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A52">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A79">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>"P"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A79">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A105">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
       <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A132">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"B"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A132">
+  <conditionalFormatting sqref="A151:A159">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
@@ -3255,27 +3591,27 @@
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A159">
+  <conditionalFormatting sqref="A178:A186">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140B4F91-2B29-7B43-9811-B0E203A516F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4E653B-C388-8C40-B022-A131D32DAC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18140" yWindow="500" windowWidth="10620" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="18180" yWindow="500" windowWidth="10620" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="32">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -133,9 +133,6 @@
   <si>
     <t>Malik Boussaid</t>
   </si>
-  <si>
-    <t xml:space="preserve">`££mnb </t>
-  </si>
 </sst>
 </file>
 
@@ -429,6 +426,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -441,124 +468,94 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1026,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
-  <dimension ref="A1:E186"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="E180" sqref="E180"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3216,6 +3213,9 @@
       <c r="B160" s="1">
         <v>45963</v>
       </c>
+      <c r="C160">
+        <v>79</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
@@ -3251,6 +3251,9 @@
       <c r="B164" s="1">
         <v>45963</v>
       </c>
+      <c r="C164">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
@@ -3270,6 +3273,9 @@
       <c r="B166" s="1">
         <v>45963</v>
       </c>
+      <c r="C166">
+        <v>76.8</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
@@ -3294,6 +3300,9 @@
       <c r="B169" s="1">
         <v>45963</v>
       </c>
+      <c r="C169">
+        <v>78.5</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
@@ -3310,6 +3319,9 @@
       <c r="B171" s="1">
         <v>45963</v>
       </c>
+      <c r="C171">
+        <v>66.400000000000006</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
@@ -3318,6 +3330,9 @@
       <c r="B172" s="1">
         <v>45963</v>
       </c>
+      <c r="C172">
+        <v>66</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
@@ -3354,7 +3369,7 @@
         <v>45963</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>22</v>
       </c>
@@ -3362,7 +3377,7 @@
         <v>45963</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>26</v>
       </c>
@@ -3370,15 +3385,18 @@
         <v>45963</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B179" s="1">
         <v>45963</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C179">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>24</v>
       </c>
@@ -3386,7 +3404,7 @@
         <v>45963</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>25</v>
       </c>
@@ -3397,7 +3415,7 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>29</v>
       </c>
@@ -3405,7 +3423,7 @@
         <v>45963</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>27</v>
       </c>
@@ -3416,7 +3434,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>28</v>
       </c>
@@ -3427,7 +3445,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>30</v>
       </c>
@@ -3437,11 +3455,8 @@
       <c r="C185">
         <v>86.2</v>
       </c>
-      <c r="E185" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>31</v>
       </c>
@@ -3500,49 +3515,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A79">
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A105">
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A132">
@@ -3592,26 +3607,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178:A186">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4E653B-C388-8C40-B022-A131D32DAC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBADAAA-16DB-C54A-9C62-7B9A1B3DE6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18180" yWindow="500" windowWidth="10620" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3216,24 +3216,36 @@
       <c r="C160">
         <v>79</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B161" s="1">
         <v>45963</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B162" s="1">
         <v>45963</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C162">
+        <v>76.7</v>
+      </c>
+      <c r="D162" s="6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>7</v>
       </c>
@@ -3243,8 +3255,11 @@
       <c r="C163">
         <v>79</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163" s="6">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>8</v>
       </c>
@@ -3254,8 +3269,11 @@
       <c r="C164">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>9</v>
       </c>
@@ -3265,8 +3283,11 @@
       <c r="C165">
         <v>87.6</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165" s="6">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>10</v>
       </c>
@@ -3276,24 +3297,39 @@
       <c r="C166">
         <v>76.8</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166" s="6">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B167" s="1">
         <v>45963</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C167">
+        <v>64.3</v>
+      </c>
+      <c r="D167" s="6">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B168" s="1">
         <v>45963</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C168">
+        <v>70.8</v>
+      </c>
+      <c r="D168" s="6">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>13</v>
       </c>
@@ -3303,16 +3339,20 @@
       <c r="C169">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169" s="6">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B170" s="1">
         <v>45963</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>16</v>
       </c>
@@ -3322,8 +3362,11 @@
       <c r="C171">
         <v>66.400000000000006</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>17</v>
       </c>
@@ -3333,8 +3376,11 @@
       <c r="C172">
         <v>66</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172" s="6">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>18</v>
       </c>
@@ -3344,48 +3390,76 @@
       <c r="C173">
         <v>89.6</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173" s="6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B174" s="1">
         <v>45963</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C174">
+        <v>60.9</v>
+      </c>
+      <c r="D174" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B175" s="1">
         <v>45963</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C175">
+        <v>76.5</v>
+      </c>
+      <c r="D175" s="6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B176" s="1">
         <v>45963</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C176">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="D176" s="6">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B177" s="1">
         <v>45963</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C177">
+        <v>78.5</v>
+      </c>
+      <c r="D177" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B178" s="1">
         <v>45963</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>23</v>
       </c>
@@ -3395,16 +3469,20 @@
       <c r="C179">
         <v>68</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179" s="6">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B180" s="1">
         <v>45963</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>25</v>
       </c>
@@ -3414,16 +3492,20 @@
       <c r="C181">
         <v>88.7</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181" s="6">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B182" s="1">
         <v>45963</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182" s="6"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>27</v>
       </c>
@@ -3433,8 +3515,11 @@
       <c r="C183">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183" s="6">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>28</v>
       </c>
@@ -3444,8 +3529,11 @@
       <c r="C184">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>30</v>
       </c>
@@ -3455,8 +3543,11 @@
       <c r="C185">
         <v>86.2</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185" s="6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>31</v>
       </c>
@@ -3465,6 +3556,9 @@
       </c>
       <c r="C186">
         <v>78.7</v>
+      </c>
+      <c r="D186" s="6">
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBADAAA-16DB-C54A-9C62-7B9A1B3DE6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07AFE6D-59C0-4640-A26B-2B32A335C8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="I164" sqref="I164"/>
+      <selection activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3211,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="B160" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C160">
         <v>79</v>
@@ -3225,7 +3225,7 @@
         <v>5</v>
       </c>
       <c r="B161" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="D161" s="6">
         <v>0.12</v>
@@ -3236,7 +3236,7 @@
         <v>6</v>
       </c>
       <c r="B162" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C162">
         <v>76.7</v>
@@ -3250,7 +3250,7 @@
         <v>7</v>
       </c>
       <c r="B163" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C163">
         <v>79</v>
@@ -3264,7 +3264,7 @@
         <v>8</v>
       </c>
       <c r="B164" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C164">
         <v>85.5</v>
@@ -3278,7 +3278,7 @@
         <v>9</v>
       </c>
       <c r="B165" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C165">
         <v>87.6</v>
@@ -3292,7 +3292,7 @@
         <v>10</v>
       </c>
       <c r="B166" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C166">
         <v>76.8</v>
@@ -3306,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="B167" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C167">
         <v>64.3</v>
@@ -3320,7 +3320,7 @@
         <v>12</v>
       </c>
       <c r="B168" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C168">
         <v>70.8</v>
@@ -3334,7 +3334,7 @@
         <v>13</v>
       </c>
       <c r="B169" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C169">
         <v>78.5</v>
@@ -3348,7 +3348,7 @@
         <v>15</v>
       </c>
       <c r="B170" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="D170" s="6"/>
     </row>
@@ -3357,7 +3357,7 @@
         <v>16</v>
       </c>
       <c r="B171" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C171">
         <v>66.400000000000006</v>
@@ -3371,7 +3371,7 @@
         <v>17</v>
       </c>
       <c r="B172" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C172">
         <v>66</v>
@@ -3385,7 +3385,7 @@
         <v>18</v>
       </c>
       <c r="B173" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C173">
         <v>89.6</v>
@@ -3399,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="B174" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C174">
         <v>60.9</v>
@@ -3413,7 +3413,7 @@
         <v>20</v>
       </c>
       <c r="B175" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C175">
         <v>76.5</v>
@@ -3427,7 +3427,7 @@
         <v>21</v>
       </c>
       <c r="B176" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C176">
         <v>72.599999999999994</v>
@@ -3441,7 +3441,7 @@
         <v>22</v>
       </c>
       <c r="B177" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C177">
         <v>78.5</v>
@@ -3455,7 +3455,7 @@
         <v>26</v>
       </c>
       <c r="B178" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="D178" s="6"/>
     </row>
@@ -3464,7 +3464,7 @@
         <v>23</v>
       </c>
       <c r="B179" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C179">
         <v>68</v>
@@ -3478,7 +3478,7 @@
         <v>24</v>
       </c>
       <c r="B180" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="D180" s="6"/>
     </row>
@@ -3487,7 +3487,7 @@
         <v>25</v>
       </c>
       <c r="B181" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C181">
         <v>88.7</v>
@@ -3501,7 +3501,7 @@
         <v>29</v>
       </c>
       <c r="B182" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="D182" s="6"/>
     </row>
@@ -3510,7 +3510,7 @@
         <v>27</v>
       </c>
       <c r="B183" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C183">
         <v>70.099999999999994</v>
@@ -3524,7 +3524,7 @@
         <v>28</v>
       </c>
       <c r="B184" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C184">
         <v>75.599999999999994</v>
@@ -3538,7 +3538,7 @@
         <v>30</v>
       </c>
       <c r="B185" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C185">
         <v>86.2</v>
@@ -3552,7 +3552,7 @@
         <v>31</v>
       </c>
       <c r="B186" s="1">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="C186">
         <v>78.7</v>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07AFE6D-59C0-4640-A26B-2B32A335C8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46966054-D025-AC4D-887D-E2FE3EBCB63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="H180" sqref="H180"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="I163" sqref="I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3227,6 +3227,9 @@
       <c r="B161" s="1">
         <v>45993</v>
       </c>
+      <c r="C161">
+        <v>90</v>
+      </c>
       <c r="D161" s="6">
         <v>0.12</v>
       </c>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46966054-D025-AC4D-887D-E2FE3EBCB63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5A6BF1-FC59-464D-BA56-AD5CE96DCCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="32">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -223,7 +223,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1023,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="I163" sqref="I163"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3564,31 +3631,270 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B198" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B200" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B204" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B205" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B207" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B208" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B209" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B210" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B211" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B212" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B213" s="1">
+        <v>46024</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="63" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="59" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="57" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A52">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A79">
     <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
@@ -3611,53 +3917,53 @@
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A79">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+  <conditionalFormatting sqref="A99:A105">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:A105">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A132">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151:A159">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
@@ -3680,7 +3986,7 @@
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A159">
+  <conditionalFormatting sqref="A178:A186">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
@@ -3703,27 +4009,27 @@
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A178:A186">
+  <conditionalFormatting sqref="A205:A213">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5A6BF1-FC59-464D-BA56-AD5CE96DCCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483658CB-F361-4546-974E-82E4B9BFEDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10680" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="33">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -133,6 +133,9 @@
   <si>
     <t>Malik Boussaid</t>
   </si>
+  <si>
+    <t>Theo Owono</t>
+  </si>
 </sst>
 </file>
 
@@ -381,11 +384,88 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -401,6 +481,46 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -411,17 +531,27 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -429,133 +559,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1090,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
-  <dimension ref="A1:D213"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3646,6 +3649,9 @@
       <c r="B188" s="1">
         <v>46024</v>
       </c>
+      <c r="C188">
+        <v>89.3</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
@@ -3654,6 +3660,9 @@
       <c r="B189" s="1">
         <v>46024</v>
       </c>
+      <c r="C189">
+        <v>76.599999999999994</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
@@ -3662,6 +3671,9 @@
       <c r="B190" s="1">
         <v>46024</v>
       </c>
+      <c r="C190">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
@@ -3679,15 +3691,18 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B193" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>11</v>
       </c>
@@ -3695,7 +3710,7 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>12</v>
       </c>
@@ -3703,15 +3718,18 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B196" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>15</v>
       </c>
@@ -3719,23 +3737,29 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B198" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B199" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>18</v>
       </c>
@@ -3743,39 +3767,51 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B201" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C201">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B202" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B203" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C203">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B204" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>26</v>
       </c>
@@ -3783,15 +3819,18 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B206" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>24</v>
       </c>
@@ -3799,7 +3838,7 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>25</v>
       </c>
@@ -3807,7 +3846,7 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>29</v>
       </c>
@@ -3815,7 +3854,7 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>27</v>
       </c>
@@ -3823,28 +3862,48 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B211" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C211">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B212" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C212">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B213" s="1">
         <v>46024</v>
+      </c>
+      <c r="C213">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B214" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C214">
+        <v>75.7</v>
       </c>
     </row>
   </sheetData>
@@ -3918,8 +3977,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A105">
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
-      <formula>"RENFO/TEK"</formula>
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>"B"</formula>
@@ -3927,8 +3986,8 @@
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
-      <formula>"R"</formula>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>"RENFO/TEK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>"OK"</formula>
@@ -3941,31 +4000,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A132">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>"B"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A159">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+      <formula>"P"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"NN"</formula>
@@ -3976,8 +4035,8 @@
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+      <formula>"NN"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"B"</formula>
@@ -4009,27 +4068,27 @@
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A205:A213">
+  <conditionalFormatting sqref="A205:A214">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483658CB-F361-4546-974E-82E4B9BFEDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510061DF-DE7F-7E4A-B08D-552C5557EDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="10680" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+      <selection activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3641,6 +3641,9 @@
       <c r="B187" s="1">
         <v>46024</v>
       </c>
+      <c r="C187">
+        <v>80.3</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
@@ -3682,6 +3685,9 @@
       <c r="B191" s="1">
         <v>46024</v>
       </c>
+      <c r="C191">
+        <v>84.4</v>
+      </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
@@ -3690,6 +3696,9 @@
       <c r="B192" s="1">
         <v>46024</v>
       </c>
+      <c r="C192">
+        <v>86.7</v>
+      </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
@@ -3709,6 +3718,9 @@
       <c r="B194" s="1">
         <v>46024</v>
       </c>
+      <c r="C194">
+        <v>62.6</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
@@ -3717,6 +3729,9 @@
       <c r="B195" s="1">
         <v>46024</v>
       </c>
+      <c r="C195">
+        <v>71.400000000000006</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
@@ -3845,6 +3860,9 @@
       <c r="B208" s="1">
         <v>46024</v>
       </c>
+      <c r="C208">
+        <v>87.8</v>
+      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
@@ -3860,6 +3878,9 @@
       </c>
       <c r="B210" s="1">
         <v>46024</v>
+      </c>
+      <c r="C210">
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510061DF-DE7F-7E4A-B08D-552C5557EDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4B1635-CCAB-9B4B-B314-8EF7B9D98141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="10680" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1095,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="H197" sqref="H197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3644,6 +3644,9 @@
       <c r="C187">
         <v>80.3</v>
       </c>
+      <c r="D187" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
@@ -3655,6 +3658,9 @@
       <c r="C188">
         <v>89.3</v>
       </c>
+      <c r="D188" s="7">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
@@ -3666,6 +3672,9 @@
       <c r="C189">
         <v>76.599999999999994</v>
       </c>
+      <c r="D189" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
@@ -3677,6 +3686,9 @@
       <c r="C190">
         <v>77.8</v>
       </c>
+      <c r="D190" s="7">
+        <v>4.1000000000000002E-2</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
@@ -3688,6 +3700,9 @@
       <c r="C191">
         <v>84.4</v>
       </c>
+      <c r="D191" s="7">
+        <v>5.5E-2</v>
+      </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
@@ -3699,8 +3714,11 @@
       <c r="C192">
         <v>86.7</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192" s="7">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>10</v>
       </c>
@@ -3710,8 +3728,11 @@
       <c r="C193">
         <v>76.7</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>11</v>
       </c>
@@ -3721,8 +3742,11 @@
       <c r="C194">
         <v>62.6</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>12</v>
       </c>
@@ -3732,8 +3756,11 @@
       <c r="C195">
         <v>71.400000000000006</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195" s="7">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>13</v>
       </c>
@@ -3743,16 +3770,20 @@
       <c r="C196">
         <v>78.8</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B197" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197" s="7"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>16</v>
       </c>
@@ -3762,8 +3793,11 @@
       <c r="C198">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>17</v>
       </c>
@@ -3773,16 +3807,20 @@
       <c r="C199">
         <v>66</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B200" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200" s="7"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>19</v>
       </c>
@@ -3792,8 +3830,11 @@
       <c r="C201">
         <v>58.3</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D201" s="7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>20</v>
       </c>
@@ -3803,8 +3844,11 @@
       <c r="C202">
         <v>76.400000000000006</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>21</v>
       </c>
@@ -3814,8 +3858,11 @@
       <c r="C203">
         <v>71.900000000000006</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203" s="7">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>22</v>
       </c>
@@ -3825,16 +3872,20 @@
       <c r="C204">
         <v>79.3</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B205" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D205" s="7"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>23</v>
       </c>
@@ -3844,16 +3895,20 @@
       <c r="C206">
         <v>68</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D206" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B207" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D207" s="7"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>25</v>
       </c>
@@ -3863,16 +3918,20 @@
       <c r="C208">
         <v>87.8</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D208" s="7">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B209" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>27</v>
       </c>
@@ -3882,8 +3941,11 @@
       <c r="C210">
         <v>69</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210" s="7">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>28</v>
       </c>
@@ -3893,8 +3955,11 @@
       <c r="C211">
         <v>74.8</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D211" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>30</v>
       </c>
@@ -3904,8 +3969,11 @@
       <c r="C212">
         <v>85.2</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D212" s="7">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>31</v>
       </c>
@@ -3915,8 +3983,11 @@
       <c r="C213">
         <v>79</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D213" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>32</v>
       </c>
@@ -3925,6 +3996,9 @@
       </c>
       <c r="C214">
         <v>75.7</v>
+      </c>
+      <c r="D214" s="7">
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4B1635-CCAB-9B4B-B314-8EF7B9D98141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1703FB1-1D35-ED4A-B5DB-CA85A909CC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="34">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Theo Owono</t>
+  </si>
+  <si>
+    <t>Mehdi Boussaid</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
-  <dimension ref="A1:D214"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="H197" sqref="H197"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4001,6 +4004,20 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B215" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C215">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="D215" s="8">
+        <v>7.8E-2</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
     <cfRule type="cellIs" dxfId="55" priority="63" operator="equal">
@@ -4163,7 +4180,7 @@
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A205:A214">
+  <conditionalFormatting sqref="A205:A215">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"NN"</formula>
     </cfRule>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1703FB1-1D35-ED4A-B5DB-CA85A909CC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B3FF37-A0BC-2440-AC30-6A9797D9548A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12960" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="35">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -139,6 +139,9 @@
   <si>
     <t>Mehdi Boussaid</t>
   </si>
+  <si>
+    <t>Nathanael Beta</t>
+  </si>
 </sst>
 </file>
 
@@ -229,7 +232,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1096,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="D215" sqref="D215"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="F224" sqref="F224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4018,31 +4088,315 @@
         <v>7.8E-2</v>
       </c>
     </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C219">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C222">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C223">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B224" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B226" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B227" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B228" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B229" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B230" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B232" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B234" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B236" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B237" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B238" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B239" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C239">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B240" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B241" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C241">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B242" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C242">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B243" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B244" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C244">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B245" s="1">
+        <v>46056</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="55" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="68" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="65" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A52">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A79">
     <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
@@ -4065,78 +4419,78 @@
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A79">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
-      <formula>"OK"</formula>
+  <conditionalFormatting sqref="A99:A105">
+    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+      <formula>"P"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:A105">
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A132">
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151:A159">
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"B"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A159">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
-      <formula>"P"</formula>
+  <conditionalFormatting sqref="A178:A186">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"NN"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"NN"</formula>
@@ -4147,8 +4501,8 @@
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"P"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"B"</formula>
@@ -4157,7 +4511,7 @@
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A178:A186">
+  <conditionalFormatting sqref="A205:A215">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
@@ -4180,27 +4534,27 @@
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A205:A215">
+  <conditionalFormatting sqref="A234:A245">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B3FF37-A0BC-2440-AC30-6A9797D9548A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94806212-6D79-3242-987A-5C1C8E2FE573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="12960" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
@@ -390,11 +390,78 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -435,6 +502,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -447,6 +544,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -457,181 +564,74 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="F224" sqref="F224"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="E230" sqref="E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4095,6 +4095,9 @@
       <c r="B216" s="1">
         <v>46056</v>
       </c>
+      <c r="C216">
+        <v>79.400000000000006</v>
+      </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
@@ -4103,6 +4106,9 @@
       <c r="B217" s="1">
         <v>46056</v>
       </c>
+      <c r="C217">
+        <v>90.2</v>
+      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
@@ -4111,6 +4117,9 @@
       <c r="B218" s="1">
         <v>46056</v>
       </c>
+      <c r="C218">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
@@ -4138,6 +4147,9 @@
       <c r="B221" s="1">
         <v>46056</v>
       </c>
+      <c r="C221">
+        <v>87.4</v>
+      </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
@@ -4176,6 +4188,9 @@
       <c r="B225" s="1">
         <v>46056</v>
       </c>
+      <c r="C225">
+        <v>79.3</v>
+      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
@@ -4184,6 +4199,9 @@
       <c r="B226" s="1">
         <v>46056</v>
       </c>
+      <c r="C226">
+        <v>79.900000000000006</v>
+      </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
@@ -4192,6 +4210,9 @@
       <c r="B227" s="1">
         <v>46056</v>
       </c>
+      <c r="C227">
+        <v>66.099999999999994</v>
+      </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
@@ -4224,6 +4245,9 @@
       <c r="B231" s="1">
         <v>46056</v>
       </c>
+      <c r="C231">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
@@ -4232,6 +4256,9 @@
       <c r="B232" s="1">
         <v>46056</v>
       </c>
+      <c r="C232">
+        <v>72.900000000000006</v>
+      </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
@@ -4347,6 +4374,9 @@
       </c>
       <c r="B245" s="1">
         <v>46056</v>
+      </c>
+      <c r="C245">
+        <v>65.7</v>
       </c>
     </row>
   </sheetData>
@@ -4420,54 +4450,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A105">
-    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A132">
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A159">
-    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>"NN"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"NN"</formula>
@@ -4478,8 +4508,8 @@
     <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>"P"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"B"</formula>
@@ -4489,8 +4519,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178:A186">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+      <formula>"P"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"NN"</formula>
@@ -4501,8 +4531,8 @@
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+      <formula>"NN"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"B"</formula>
@@ -4535,26 +4565,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:A245">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94806212-6D79-3242-987A-5C1C8E2FE573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE06F294-B968-7342-82C1-75CB406E3630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12960" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="35">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -232,7 +232,67 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -246,11 +306,108 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -266,6 +423,53 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -276,6 +480,53 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -286,6 +537,53 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
@@ -296,11 +594,108 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -313,526 +708,64 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1166,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="E230" sqref="E230"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="H223" sqref="H223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3854,7 +3787,12 @@
       <c r="B197" s="1">
         <v>46024</v>
       </c>
-      <c r="D197" s="7"/>
+      <c r="C197">
+        <v>79</v>
+      </c>
+      <c r="D197" s="7">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
@@ -4098,6 +4036,9 @@
       <c r="C216">
         <v>79.400000000000006</v>
       </c>
+      <c r="D216" s="7">
+        <v>8.1000000000000003E-2</v>
+      </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
@@ -4109,6 +4050,9 @@
       <c r="C217">
         <v>90.2</v>
       </c>
+      <c r="D217" s="7">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
@@ -4120,6 +4064,9 @@
       <c r="C218">
         <v>76.5</v>
       </c>
+      <c r="D218" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
@@ -4131,6 +4078,9 @@
       <c r="C219">
         <v>78.3</v>
       </c>
+      <c r="D219" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
@@ -4139,6 +4089,7 @@
       <c r="B220" s="1">
         <v>46056</v>
       </c>
+      <c r="D220" s="7"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
@@ -4150,6 +4101,9 @@
       <c r="C221">
         <v>87.4</v>
       </c>
+      <c r="D221" s="7">
+        <v>9.8000000000000004E-2</v>
+      </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
@@ -4161,6 +4115,9 @@
       <c r="C222">
         <v>77.5</v>
       </c>
+      <c r="D222" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
@@ -4172,6 +4129,9 @@
       <c r="C223">
         <v>62.6</v>
       </c>
+      <c r="D223" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
@@ -4180,8 +4140,14 @@
       <c r="B224" s="1">
         <v>46056</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C224">
+        <v>71.2</v>
+      </c>
+      <c r="D224" s="7">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>13</v>
       </c>
@@ -4191,8 +4157,11 @@
       <c r="C225">
         <v>79.3</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D225" s="7">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>15</v>
       </c>
@@ -4202,8 +4171,11 @@
       <c r="C226">
         <v>79.900000000000006</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D226" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>16</v>
       </c>
@@ -4213,378 +4185,384 @@
       <c r="C227">
         <v>66.099999999999994</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D227" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B228" s="1">
         <v>46056</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C228">
+        <v>64.2</v>
+      </c>
+      <c r="D228" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B229" s="1">
         <v>46056</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C229">
+        <v>75.5</v>
+      </c>
+      <c r="D229" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B230" s="1">
         <v>46056</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C230">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="D230" s="7">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B231" s="1">
         <v>46056</v>
       </c>
       <c r="C231">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
-        <v>21</v>
+        <v>77.3</v>
+      </c>
+      <c r="D231" s="7">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B232" s="1">
         <v>46056</v>
       </c>
       <c r="C232">
-        <v>72.900000000000006</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="D232" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B233" s="1">
         <v>46056</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C233">
+        <v>88.3</v>
+      </c>
+      <c r="D233" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B234" s="1">
         <v>46056</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="5" t="s">
-        <v>23</v>
+      <c r="D234" s="7"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B235" s="1">
         <v>46056</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C235">
+        <v>70.7</v>
+      </c>
+      <c r="D235" s="7">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B236" s="1">
         <v>46056</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C236">
+        <v>73.3</v>
+      </c>
+      <c r="D236" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B237" s="1">
         <v>46056</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C237">
+        <v>85.2</v>
+      </c>
+      <c r="D237" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B238" s="1">
         <v>46056</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C238">
+        <v>76.2</v>
+      </c>
+      <c r="D238" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B239" s="1">
         <v>46056</v>
       </c>
       <c r="C239">
-        <v>70.7</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D239" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B240" s="1">
         <v>46056</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C240">
+        <v>77</v>
+      </c>
+      <c r="D240" s="7">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B241" s="1">
         <v>46056</v>
       </c>
       <c r="C241">
-        <v>85.2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B242" s="1">
-        <v>46056</v>
-      </c>
-      <c r="C242">
-        <v>76.2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B243" s="1">
-        <v>46056</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B244" s="1">
-        <v>46056</v>
-      </c>
-      <c r="C244">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B245" s="1">
-        <v>46056</v>
-      </c>
-      <c r="C245">
         <v>65.7</v>
       </c>
+      <c r="D241" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
+  <conditionalFormatting sqref="A21:A26 A232:A241">
+    <cfRule type="cellIs" dxfId="55" priority="64" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="65" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="66" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="68" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="69" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="70" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="68" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="65" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A52">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="56" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A79">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A105">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A132">
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A159">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178:A186">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205:A215">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A234:A245">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Poids-Masse grasse.xlsx
+++ b/data/Poids-Masse grasse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE06F294-B968-7342-82C1-75CB406E3630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24133D12-6A68-F949-AC84-F1E4C043E7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{6E33DD24-57FC-B141-A642-57CD5D231636}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -137,10 +137,10 @@
     <t>Theo Owono</t>
   </si>
   <si>
-    <t>Mehdi Boussaid</t>
+    <t>Nathanael Beta</t>
   </si>
   <si>
-    <t>Nathanael Beta</t>
+    <t xml:space="preserve">Mehdi Boussaid </t>
   </si>
 </sst>
 </file>
@@ -234,6 +234,63 @@
   </cellStyles>
   <dxfs count="56">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -244,6 +301,53 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -259,6 +363,53 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -269,6 +420,63 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -294,6 +502,66 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -301,6 +569,63 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -311,6 +636,53 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -326,6 +698,53 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -336,34 +755,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -374,398 +766,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E12607-389A-2244-B566-4C295327EA86}">
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="H223" sqref="H223"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B215" s="1">
         <v>46049</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B240" s="1">
         <v>46056</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B241" s="1">
         <v>46056</v>
@@ -4381,73 +4381,73 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:A26 A232:A241">
-    <cfRule type="cellIs" dxfId="55" priority="64" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="65" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="66" operator="equal">
-      <formula>"P"</formula>
+  <conditionalFormatting sqref="A21:A26 A232:A239 A241">
+    <cfRule type="cellIs" dxfId="55" priority="70" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="69" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="68" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="69" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="70" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="64" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A52">
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="56" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="51" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A79">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="37" priority="45" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A105">
@@ -4474,95 +4474,95 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A132">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
       <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
-      <formula>"RENFO/TEK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
-      <formula>"NN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A159">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
       <formula>"NN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178:A186">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205:A214">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A205:A215">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
-      <formula>"P"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"RENFO/TEK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
-      <formula>"NN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
-      <formula>"NN"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
